--- a/InventoryApp/InventoryApp.View/Resources/TraspasoStock.xlsx
+++ b/InventoryApp/InventoryApp.View/Resources/TraspasoStock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">DIRECCIÓN </t>
   </si>
@@ -57,9 +57,6 @@
     <t>N° DE SERIE</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPRESA: </t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>TÉCNICO QUE RECIBE:</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
   </si>
 </sst>
 </file>
@@ -423,31 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +446,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +822,7 @@
   <dimension ref="B2:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="F31:G31"/>
+      <selection activeCell="B43" sqref="B43:AH43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,34 +885,34 @@
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="T5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -930,21 +933,21 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="30"/>
+      <c r="W8" s="23"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
@@ -1049,7 +1052,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -1117,7 +1120,7 @@
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1127,7 +1130,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -1195,7 +1198,7 @@
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1205,7 +1208,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -1347,7 +1350,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1357,7 +1360,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -1424,7 +1427,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1434,7 +1437,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -1577,7 +1580,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1587,7 +1590,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
@@ -1655,7 +1658,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1665,7 +1668,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="23"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
@@ -1808,7 +1811,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
@@ -1941,7 +1944,7 @@
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1951,7 +1954,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
@@ -2013,7 +2016,7 @@
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
       <c r="C37" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2023,7 +2026,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="23"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
@@ -2229,67 +2232,70 @@
       <c r="AH42" s="21"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="26" t="s">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="28"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L25:AG25"/>
+    <mergeCell ref="L31:AG31"/>
+    <mergeCell ref="L27:AG27"/>
+    <mergeCell ref="L35:AG35"/>
+    <mergeCell ref="L37:AG37"/>
     <mergeCell ref="C6:V6"/>
     <mergeCell ref="W8:AE8"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="L11:AG11"/>
     <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="L25:AG25"/>
-    <mergeCell ref="L31:AG31"/>
-    <mergeCell ref="L27:AG27"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="D43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="L35:AG35"/>
-    <mergeCell ref="L37:AG37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InventoryApp/InventoryApp.View/Resources/TraspasoStock.xlsx
+++ b/InventoryApp/InventoryApp.View/Resources/TraspasoStock.xlsx
@@ -66,9 +66,6 @@
     <t>ÁREA DEL SOLICITANTE:</t>
   </si>
   <si>
-    <t>TRANSPORTE:</t>
-  </si>
-  <si>
     <t>GUÍA:</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>MEDIO DE ENVÍO:</t>
   </si>
 </sst>
 </file>
@@ -426,30 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +437,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:AH43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,28 +891,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="C6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -933,29 +933,29 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="25"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="10"/>
@@ -1052,28 +1052,28 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="28"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
@@ -1130,28 +1130,28 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="28"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
@@ -1208,28 +1208,28 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="28"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
@@ -1350,7 +1350,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1360,28 +1360,28 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
@@ -1427,7 +1427,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1437,28 +1437,28 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="28"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
@@ -1580,7 +1580,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1590,28 +1590,28 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="28"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
@@ -1658,7 +1658,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1668,28 +1668,28 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="28"/>
       <c r="AH27" s="18"/>
     </row>
     <row r="28" spans="2:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,28 +1811,28 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="28"/>
       <c r="AH31" s="18"/>
       <c r="AI31" s="12"/>
     </row>
@@ -1944,7 +1944,7 @@
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1954,28 +1954,28 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="28"/>
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="2:34" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
       <c r="C37" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2026,28 +2026,28 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="28"/>
       <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="2:34" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,63 +2232,52 @@
       <c r="AH42" s="21"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="31" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="31" t="s">
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="33"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L25:AG25"/>
-    <mergeCell ref="L31:AG31"/>
-    <mergeCell ref="L27:AG27"/>
     <mergeCell ref="L35:AG35"/>
     <mergeCell ref="L37:AG37"/>
     <mergeCell ref="C6:V6"/>
@@ -2296,6 +2285,17 @@
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="L11:AG11"/>
     <mergeCell ref="L13:AG13"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L25:AG25"/>
+    <mergeCell ref="L31:AG31"/>
+    <mergeCell ref="L27:AG27"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
